--- a/public/files/formato_vacaciones_carga_masiva.xlsx
+++ b/public/files/formato_vacaciones_carga_masiva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\avintech\app-anvitech\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\Anvitech - new-starsoft\app-anvitech-new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D25F42-5EDA-40EA-A510-A921B4839280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469CA09C-D5D2-4A99-BA4C-36895E6BB1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="2280" windowWidth="21360" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>dni</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>contexto</t>
+  </si>
+  <si>
+    <t>Descripcion del contexto</t>
   </si>
 </sst>
 </file>
@@ -87,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,14 +377,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -394,13 +398,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45485</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
